--- a/sites/131/m/excel-samples/sample01.xlsx
+++ b/sites/131/m/excel-samples/sample01.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhiming\Documents\GitHub\vmiis\projects\sites\131\excel-samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhiming\Documents\GitHub\vmiis\projects\sites\131\m\excel-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7152E05E-82DB-4DC9-BF09-23CE85106DD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B57261B-E8C8-4261-9C71-5F650856E19C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1665" yWindow="1095" windowWidth="25440" windowHeight="15390" xr2:uid="{DD08BBD7-CB19-4352-8346-387B013CAEB4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{DD08BBD7-CB19-4352-8346-387B013CAEB4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Form Field" sheetId="1" r:id="rId1"/>
+    <sheet name="Configuration" sheetId="2" r:id="rId2"/>
+    <sheet name="Field Value Instructions" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
-  <si>
-    <t>Database Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>Field Type</t>
   </si>
@@ -84,9 +82,6 @@
     <t>Drop Down List</t>
   </si>
   <si>
-    <t>Name/Value</t>
-  </si>
-  <si>
     <t>NWS/NSW,QLD/QLD</t>
   </si>
   <si>
@@ -97,6 +92,33 @@
   </si>
   <si>
     <t>Male/Male,Female/Female,Other/Other</t>
+  </si>
+  <si>
+    <t>Option1</t>
+  </si>
+  <si>
+    <t>Option2</t>
+  </si>
+  <si>
+    <t>Option3</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Database Table Name</t>
+  </si>
+  <si>
+    <t>Sample1</t>
+  </si>
+  <si>
+    <t>Database Field Name</t>
+  </si>
+  <si>
+    <t>Item List. For example: Item,Item…  or  Name/Value,Name/Value…</t>
   </si>
 </sst>
 </file>
@@ -448,128 +470,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899FB340-2124-4D82-9F9F-D93253F4796E}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" customWidth="1"/>
-    <col min="5" max="5" width="39.28515625" customWidth="1"/>
-    <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" customWidth="1"/>
+    <col min="4" max="5" width="31.140625" customWidth="1"/>
+    <col min="6" max="6" width="38.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="8" width="29.140625" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="J3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="G2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="J5">
         <v>12</v>
       </c>
     </row>
@@ -580,10 +619,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A05C77-B20A-434B-B872-39914B1189ED}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,7 +632,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1">
         <v>700</v>
@@ -601,10 +640,61 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38CA966-BD6A-41B1-BB8B-4FD4C0A6D7D7}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
+    <col min="2" max="2" width="63.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
